--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -3554,9 +3554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV7" sqref="CV7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>

--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -1606,9 +1606,6 @@
     <t>Curb Cut ::  ::  :: subsequent :: approved :: fifth avenue ::  ::  :: rome18 ::  ::  :: exempted</t>
   </si>
   <si>
-    <t>AnQaFailedStandardTest</t>
-  </si>
-  <si>
     <t>PayPaaByCheckTest</t>
   </si>
   <si>
@@ -1713,9 +1710,6 @@
     <t xml:space="preserve"> ::  ::  ::  ::  ::  :: permit issued :: 1000 :: antenna ::  :: joe2 ::  :: :: </t>
   </si>
   <si>
-    <t>Antenna ::  ::  :: subsequent :: approved :: 1000 ::  ::  :: rome18 ::  ::  :: exempted</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ::  :: I ::  ::  ::  :: permit issued :: 1000 :: antenna ::  ::  ::  :: :: </t>
   </si>
   <si>
@@ -1786,6 +1780,12 @@
   </si>
   <si>
     <t>BUILD023 :: Permit Issued</t>
+  </si>
+  <si>
+    <t>Antenna ::  ::  :: subsequent :: approved :: 888 ::  ::  :: rome18 ::  ::  :: exempted</t>
+  </si>
+  <si>
+    <t>AnQaFailed</t>
   </si>
 </sst>
 </file>
@@ -3139,7 +3139,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="63" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>3</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>3</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="63" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>3</v>
@@ -3211,8 +3211,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="43" t="s">
-        <v>373</v>
+      <c r="A8" s="63" t="s">
+        <v>418</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>3</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1">
       <c r="A9" s="63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="58" t="s">
@@ -3229,7 +3229,7 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1">
       <c r="A10" s="43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="58" t="s">
@@ -3274,7 +3274,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>3</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1">
       <c r="A16" s="43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="58" t="s">
@@ -3299,7 +3299,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="55" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>3</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>3</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>3</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>3</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>3</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>3</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>3</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>3</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>3</v>
@@ -3556,7 +3556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D63" sqref="D63"/>
+      <selection pane="topRight" activeCell="A57" sqref="A57:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="5" spans="1:138" s="9" customFormat="1">
       <c r="A5" s="63" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B5" s="8"/>
       <c r="E5" s="8"/>
@@ -4232,7 +4232,7 @@
         <v>17</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>58</v>
@@ -4382,7 +4382,7 @@
         <v>51</v>
       </c>
       <c r="BP6" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BQ6" s="15" t="s">
         <v>226</v>
@@ -4397,10 +4397,10 @@
         <v>120</v>
       </c>
       <c r="BU6" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="BV6" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BW6" s="16" t="s">
         <v>121</v>
@@ -4591,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>323</v>
@@ -4603,19 +4603,19 @@
         <v>14</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X7" s="14" t="s">
         <v>317</v>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD7" s="14" t="s">
         <v>3</v>
@@ -4738,18 +4738,18 @@
         <v>140</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BT7" s="4"/>
       <c r="BU7" s="4" t="s">
         <v>321</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="BW7" s="4"/>
       <c r="BX7" s="14"/>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="CF7" s="4"/>
       <c r="CG7" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CH7" s="14" t="s">
         <v>118</v>
@@ -4797,7 +4797,7 @@
         <v>109</v>
       </c>
       <c r="CQ7" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="CR7" s="4" t="s">
         <v>3</v>
@@ -4812,7 +4812,7 @@
         <v>109</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="CW7" s="4" t="s">
         <v>3</v>
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>58</v>
@@ -5677,7 +5677,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>52</v>
@@ -5692,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>323</v>
@@ -5704,19 +5704,19 @@
         <v>14</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X15" s="14" t="s">
         <v>317</v>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD15" s="14" t="s">
         <v>3</v>
@@ -5921,7 +5921,7 @@
         <v>3</v>
       </c>
       <c r="ED15" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EE15" s="4" t="s">
         <v>326</v>
@@ -5933,9 +5933,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:132" s="9" customFormat="1">
+    <row r="17" spans="1:128" s="9" customFormat="1">
       <c r="A17" s="43" t="s">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
@@ -6005,7 +6005,7 @@
       <c r="CY17" s="8"/>
       <c r="CZ17" s="8"/>
     </row>
-    <row r="18" spans="1:132" s="11" customFormat="1" ht="38.25">
+    <row r="18" spans="1:128" s="11" customFormat="1" ht="38.25">
       <c r="A18" s="17" t="s">
         <v>2</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>7</v>
@@ -6058,7 +6058,7 @@
         <v>17</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>58</v>
@@ -6319,42 +6319,90 @@
         <v>123</v>
       </c>
       <c r="DA18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="DC18" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="DD18" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="DF18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="DG18" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="DH18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="DI18" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ18" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DL18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM18" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="DN18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO18" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="DP18" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="DQ18" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR18" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="DT18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="DU18" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="DB18" s="15" t="s">
+      <c r="DV18" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="DC18" s="6" t="s">
+      <c r="DW18" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="DD18" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="DE18" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="DF18" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="DG18" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="DX18" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:132" s="5" customFormat="1" ht="51">
+    <row r="19" spans="1:128" s="5" customFormat="1" ht="51">
       <c r="A19" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>54</v>
+        <v>387</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>52</v>
@@ -6369,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>323</v>
@@ -6381,19 +6429,19 @@
         <v>14</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X19" s="14" t="s">
         <v>317</v>
@@ -6409,7 +6457,7 @@
       </c>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD19" s="14" t="s">
         <v>3</v>
@@ -6476,7 +6524,9 @@
       <c r="BK19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BL19" s="14"/>
+      <c r="BL19" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="BM19" s="14" t="s">
         <v>124</v>
       </c>
@@ -6489,37 +6539,36 @@
       <c r="BP19" s="14" t="s">
         <v>78</v>
       </c>
+      <c r="BQ19" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="BR19" s="4"/>
       <c r="BS19" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="BT19" s="4"/>
       <c r="BU19" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BV19" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BW19" s="4"/>
       <c r="BX19" s="14"/>
-      <c r="BY19" s="4" t="s">
-        <v>342</v>
-      </c>
+      <c r="BY19" s="4"/>
       <c r="BZ19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="CA19" s="4" t="s">
-        <v>342</v>
-      </c>
+      <c r="CA19" s="4"/>
       <c r="CB19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CC19" s="14"/>
       <c r="CD19" s="4" t="s">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c r="CE19" s="4" t="s">
-        <v>321</v>
+        <v>93</v>
       </c>
       <c r="CF19" s="4"/>
       <c r="CG19" s="23" t="s">
@@ -6581,9 +6630,81 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:132" s="9" customFormat="1">
-      <c r="A21" s="63" t="s">
-        <v>290</v>
+    <row r="20" spans="1:128" s="5" customFormat="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="6"/>
+      <c r="AM20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="14"/>
+      <c r="BP20" s="14"/>
+      <c r="BR20" s="4"/>
+      <c r="BS20" s="4"/>
+      <c r="BT20" s="4"/>
+      <c r="BU20" s="4"/>
+      <c r="BV20" s="4"/>
+      <c r="BW20" s="4"/>
+      <c r="BX20" s="14"/>
+      <c r="BY20" s="4"/>
+      <c r="CA20" s="4"/>
+      <c r="CC20" s="14"/>
+      <c r="CD20" s="4"/>
+      <c r="CE20" s="4"/>
+      <c r="CF20" s="4"/>
+      <c r="CG20" s="23"/>
+      <c r="CH20" s="14"/>
+      <c r="CJ20" s="23"/>
+      <c r="CK20" s="14"/>
+      <c r="CL20" s="14"/>
+      <c r="CM20" s="14"/>
+      <c r="CP20" s="4"/>
+      <c r="CQ20" s="4"/>
+      <c r="CR20" s="4"/>
+      <c r="CS20" s="4"/>
+      <c r="CT20" s="4"/>
+      <c r="CU20" s="4"/>
+      <c r="CV20" s="4"/>
+      <c r="CW20" s="4"/>
+      <c r="CX20" s="4"/>
+      <c r="CY20" s="4"/>
+      <c r="CZ20" s="23"/>
+    </row>
+    <row r="21" spans="1:128" s="9" customFormat="1">
+      <c r="A21" s="43" t="s">
+        <v>404</v>
       </c>
       <c r="B21" s="8"/>
       <c r="E21" s="8"/>
@@ -6653,7 +6774,7 @@
       <c r="CY21" s="8"/>
       <c r="CZ21" s="8"/>
     </row>
-    <row r="22" spans="1:132" s="11" customFormat="1" ht="38.25">
+    <row r="22" spans="1:128" s="11" customFormat="1" ht="38.25">
       <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
@@ -6664,7 +6785,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>7</v>
@@ -6706,7 +6827,7 @@
         <v>17</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>58</v>
@@ -6931,7 +7052,7 @@
         <v>104</v>
       </c>
       <c r="CO22" s="17" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="CP22" s="17" t="s">
         <v>232</v>
@@ -6973,84 +7094,84 @@
         <v>157</v>
       </c>
       <c r="DC22" s="15" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="DD22" s="16" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="DE22" s="15" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="DF22" s="15" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="DG22" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="DH22" s="15" t="s">
-        <v>238</v>
+        <v>162</v>
+      </c>
+      <c r="DH22" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="DI22" s="15" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="DJ22" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="DK22" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK22" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DL22" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM22" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="DN22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO22" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="DP22" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="DQ22" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR22" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS22" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="DL22" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="DM22" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="DN22" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="DO22" s="6" t="s">
+      <c r="DT22" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="DP22" s="6" t="s">
+      <c r="DU22" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="DQ22" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="DR22" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="DS22" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="DT22" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU22" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="DV22" s="6" t="s">
-        <v>246</v>
+      <c r="DV22" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="DW22" s="6" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="DX22" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:132" s="5" customFormat="1" ht="63.75">
+    <row r="23" spans="1:128" s="5" customFormat="1" ht="51">
       <c r="A23" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>394</v>
+        <v>54</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>52</v>
@@ -7065,7 +7186,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>323</v>
@@ -7077,19 +7198,19 @@
         <v>14</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X23" s="14" t="s">
         <v>317</v>
@@ -7105,7 +7226,7 @@
       </c>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD23" s="14" t="s">
         <v>3</v>
@@ -7187,7 +7308,9 @@
       <c r="BP23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="BR23" s="4"/>
+      <c r="BR23" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="BS23" s="4" t="s">
         <v>319</v>
       </c>
@@ -7201,11 +7324,16 @@
       <c r="BW23" s="4"/>
       <c r="BX23" s="14"/>
       <c r="BY23" s="4"/>
+      <c r="BZ23" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="CA23" s="4"/>
       <c r="CB23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="CC23" s="14"/>
+      <c r="CC23" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="CD23" s="4" t="s">
         <v>92</v>
       </c>
@@ -7226,7 +7354,7 @@
         <v>52</v>
       </c>
       <c r="CK23" s="14" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="CL23" s="14" t="s">
         <v>70</v>
@@ -7271,76 +7399,10 @@
       <c r="CZ23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="DA23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="DB23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="DC23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DD23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DF23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DG23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DH23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DI23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ23" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="DK23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="DL23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="DM23" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="DN23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DP23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DQ23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DR23" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="DS23" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="DT23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DU23" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="DV23" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="DW23" s="5" t="s">
-        <v>248</v>
-      </c>
     </row>
-    <row r="25" spans="1:132" s="9" customFormat="1">
+    <row r="25" spans="1:128" s="9" customFormat="1">
       <c r="A25" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B25" s="8"/>
       <c r="E25" s="8"/>
@@ -7410,7 +7472,7 @@
       <c r="CY25" s="8"/>
       <c r="CZ25" s="8"/>
     </row>
-    <row r="26" spans="1:132" s="11" customFormat="1" ht="38.25">
+    <row r="26" spans="1:128" s="11" customFormat="1" ht="38.25">
       <c r="A26" s="17" t="s">
         <v>2</v>
       </c>
@@ -7421,7 +7483,7 @@
         <v>57</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>7</v>
@@ -7463,7 +7525,7 @@
         <v>17</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>58</v>
@@ -7693,7 +7755,7 @@
       <c r="CP26" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="CQ26" s="17" t="s">
+      <c r="CQ26" s="16" t="s">
         <v>113</v>
       </c>
       <c r="CR26" s="17" t="s">
@@ -7702,13 +7764,13 @@
       <c r="CS26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CT26" s="17" t="s">
+      <c r="CT26" s="16" t="s">
         <v>223</v>
       </c>
       <c r="CU26" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="CV26" s="17" t="s">
+      <c r="CV26" s="16" t="s">
         <v>116</v>
       </c>
       <c r="CW26" s="17" t="s">
@@ -7720,106 +7782,46 @@
       <c r="CY26" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CZ26" s="18" t="s">
+      <c r="CZ26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="DA26" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="DB26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="DC26" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="DD26" s="16" t="s">
-        <v>159</v>
+      <c r="DA26" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="DB26" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DC26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD26" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="DE26" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="DF26" s="15" t="s">
-        <v>161</v>
+        <v>218</v>
+      </c>
+      <c r="DF26" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="DG26" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH26" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI26" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="DJ26" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK26" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL26" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="DM26" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="DN26" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="DO26" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="DP26" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ26" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="DR26" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS26" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT26" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="DU26" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="DV26" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="DW26" s="6" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="DX26" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="DY26" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="DZ26" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="EA26" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="EB26" s="6" t="s">
-        <v>263</v>
-      </c>
     </row>
-    <row r="27" spans="1:132" s="5" customFormat="1" ht="51">
+    <row r="27" spans="1:128" s="5" customFormat="1" ht="51">
       <c r="A27" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>52</v>
@@ -7834,7 +7836,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>323</v>
@@ -7846,19 +7848,19 @@
         <v>14</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V27" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X27" s="14" t="s">
         <v>317</v>
@@ -7874,7 +7876,7 @@
       </c>
       <c r="AB27" s="14"/>
       <c r="AC27" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD27" s="14" t="s">
         <v>3</v>
@@ -7941,9 +7943,7 @@
       <c r="BK27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BL27" s="14" t="s">
-        <v>3</v>
-      </c>
+      <c r="BL27" s="14"/>
       <c r="BM27" s="14" t="s">
         <v>124</v>
       </c>
@@ -7958,28 +7958,35 @@
       </c>
       <c r="BR27" s="4"/>
       <c r="BS27" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="BT27" s="4"/>
       <c r="BU27" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BV27" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BW27" s="4"/>
       <c r="BX27" s="14"/>
-      <c r="BY27" s="4"/>
-      <c r="CA27" s="4"/>
+      <c r="BY27" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="BZ27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA27" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="CB27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CC27" s="14"/>
       <c r="CD27" s="4" t="s">
-        <v>92</v>
+        <v>319</v>
       </c>
       <c r="CE27" s="4" t="s">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="CF27" s="4"/>
       <c r="CG27" s="23" t="s">
@@ -7995,7 +8002,7 @@
         <v>52</v>
       </c>
       <c r="CK27" s="14" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="CL27" s="14" t="s">
         <v>70</v>
@@ -8040,28 +8047,10 @@
       <c r="CZ27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="DA27" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="DX27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DY27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="DZ27" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="EA27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="EB27" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="29" spans="1:132" s="9" customFormat="1">
-      <c r="A29" s="43" t="s">
-        <v>405</v>
+    <row r="29" spans="1:128" s="9" customFormat="1">
+      <c r="A29" s="63" t="s">
+        <v>349</v>
       </c>
       <c r="B29" s="8"/>
       <c r="E29" s="8"/>
@@ -8131,7 +8120,7 @@
       <c r="CY29" s="8"/>
       <c r="CZ29" s="8"/>
     </row>
-    <row r="30" spans="1:132" s="11" customFormat="1" ht="38.25">
+    <row r="30" spans="1:128" s="11" customFormat="1" ht="38.25">
       <c r="A30" s="17" t="s">
         <v>2</v>
       </c>
@@ -8142,7 +8131,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>7</v>
@@ -8184,7 +8173,7 @@
         <v>17</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S30" s="15" t="s">
         <v>58</v>
@@ -8265,7 +8254,7 @@
         <v>63</v>
       </c>
       <c r="AS30" s="6" t="s">
-        <v>38</v>
+        <v>382</v>
       </c>
       <c r="AT30" s="6" t="s">
         <v>65</v>
@@ -8414,7 +8403,7 @@
       <c r="CP30" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="CQ30" s="17" t="s">
+      <c r="CQ30" s="16" t="s">
         <v>113</v>
       </c>
       <c r="CR30" s="17" t="s">
@@ -8423,13 +8412,13 @@
       <c r="CS30" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CT30" s="17" t="s">
+      <c r="CT30" s="16" t="s">
         <v>223</v>
       </c>
       <c r="CU30" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="CV30" s="17" t="s">
+      <c r="CV30" s="16" t="s">
         <v>116</v>
       </c>
       <c r="CW30" s="17" t="s">
@@ -8441,7 +8430,7 @@
       <c r="CY30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CZ30" s="18" t="s">
+      <c r="CZ30" s="6" t="s">
         <v>123</v>
       </c>
       <c r="DA30" s="15" t="s">
@@ -8451,84 +8440,84 @@
         <v>157</v>
       </c>
       <c r="DC30" s="15" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="DD30" s="16" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="DE30" s="15" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="DF30" s="15" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="DG30" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH30" s="6" t="s">
-        <v>163</v>
+        <v>237</v>
+      </c>
+      <c r="DH30" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="DI30" s="15" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="DJ30" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK30" s="6" t="s">
-        <v>166</v>
+        <v>239</v>
+      </c>
+      <c r="DK30" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="DL30" s="6" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="DM30" s="6" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="DN30" s="6" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="DO30" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="DP30" s="15" t="s">
-        <v>170</v>
+        <v>288</v>
+      </c>
+      <c r="DP30" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="DQ30" s="15" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="DR30" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS30" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT30" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="DU30" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="DV30" s="15" t="s">
-        <v>219</v>
+        <v>244</v>
+      </c>
+      <c r="DS30" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="DT30" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU30" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="DV30" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="DW30" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="DX30" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:132" s="5" customFormat="1" ht="51">
+    <row r="31" spans="1:128" s="5" customFormat="1" ht="51">
       <c r="A31" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>302</v>
+        <v>347</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>52</v>
@@ -8543,7 +8532,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>323</v>
@@ -8555,19 +8544,19 @@
         <v>14</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V31" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X31" s="14" t="s">
         <v>317</v>
@@ -8583,7 +8572,7 @@
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD31" s="14" t="s">
         <v>3</v>
@@ -8609,17 +8598,10 @@
         <v>310</v>
       </c>
       <c r="AS31" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT31" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AU31" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV31" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
       <c r="AW31" s="14" t="s">
         <v>314</v>
       </c>
@@ -8638,9 +8620,7 @@
       <c r="BB31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BC31" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="BC31" s="14"/>
       <c r="BD31" s="14" t="s">
         <v>70</v>
       </c>
@@ -8662,7 +8642,7 @@
         <v>3</v>
       </c>
       <c r="BL31" s="14" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="BM31" s="14" t="s">
         <v>124</v>
@@ -8674,18 +8654,20 @@
         <v>140</v>
       </c>
       <c r="BP31" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BR31" s="4"/>
-      <c r="BS31" s="4"/>
-      <c r="BT31" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="BU31" s="4"/>
-      <c r="BV31" s="4"/>
-      <c r="BW31" s="4" t="s">
-        <v>330</v>
-      </c>
+      <c r="BS31" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT31" s="4"/>
+      <c r="BU31" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BV31" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BW31" s="4"/>
       <c r="BX31" s="14" t="s">
         <v>3</v>
       </c>
@@ -8695,11 +8677,13 @@
         <v>3</v>
       </c>
       <c r="CC31" s="14"/>
-      <c r="CD31" s="4"/>
-      <c r="CE31" s="4"/>
-      <c r="CF31" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="CD31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF31" s="4"/>
       <c r="CG31" s="23" t="s">
         <v>52</v>
       </c>
@@ -8718,7 +8702,9 @@
       <c r="CL31" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="CM31" s="14"/>
+      <c r="CM31" s="14" t="s">
+        <v>314</v>
+      </c>
       <c r="CN31" s="5" t="s">
         <v>3</v>
       </c>
@@ -8731,35 +8717,104 @@
       <c r="CQ31" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CR31" s="5" t="s">
+      <c r="CR31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CS31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CT31" s="5" t="s">
+      <c r="CT31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CU31" s="4" t="s">
         <v>109</v>
       </c>
       <c r="CV31" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="CW31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CY31" s="4"/>
+        <v>333</v>
+      </c>
+      <c r="CW31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX31" s="4"/>
+      <c r="CY31" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="CZ31" s="23" t="s">
         <v>52</v>
       </c>
+      <c r="DA31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB31" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="DC31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DE31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DG31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DI31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ31" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DK31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="DL31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DM31" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="DN31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DQ31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR31" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DS31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DT31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DV31" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="DW31" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="33" spans="1:128" s="9" customFormat="1">
-      <c r="A33" s="43" t="s">
-        <v>399</v>
+    <row r="32" spans="1:128">
+      <c r="A32" s="52"/>
+    </row>
+    <row r="33" spans="1:132" s="9" customFormat="1">
+      <c r="A33" s="63" t="s">
+        <v>350</v>
       </c>
       <c r="B33" s="8"/>
       <c r="E33" s="8"/>
@@ -8829,7 +8884,7 @@
       <c r="CY33" s="8"/>
       <c r="CZ33" s="8"/>
     </row>
-    <row r="34" spans="1:128" s="11" customFormat="1" ht="38.25">
+    <row r="34" spans="1:132" s="11" customFormat="1" ht="38.25">
       <c r="A34" s="17" t="s">
         <v>2</v>
       </c>
@@ -8840,7 +8895,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>7</v>
@@ -8882,7 +8937,7 @@
         <v>17</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S34" s="15" t="s">
         <v>58</v>
@@ -9112,7 +9167,7 @@
       <c r="CP34" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="CQ34" s="17" t="s">
+      <c r="CQ34" s="16" t="s">
         <v>113</v>
       </c>
       <c r="CR34" s="17" t="s">
@@ -9121,13 +9176,13 @@
       <c r="CS34" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CT34" s="17" t="s">
+      <c r="CT34" s="16" t="s">
         <v>223</v>
       </c>
       <c r="CU34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="CV34" s="17" t="s">
+      <c r="CV34" s="16" t="s">
         <v>116</v>
       </c>
       <c r="CW34" s="17" t="s">
@@ -9139,7 +9194,7 @@
       <c r="CY34" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CZ34" s="18" t="s">
+      <c r="CZ34" s="6" t="s">
         <v>123</v>
       </c>
       <c r="DA34" s="15" t="s">
@@ -9149,84 +9204,84 @@
         <v>157</v>
       </c>
       <c r="DC34" s="15" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="DD34" s="16" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="DE34" s="15" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="DF34" s="15" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="DG34" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH34" s="6" t="s">
-        <v>163</v>
+        <v>237</v>
+      </c>
+      <c r="DH34" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="DI34" s="15" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="DJ34" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK34" s="6" t="s">
-        <v>166</v>
+        <v>239</v>
+      </c>
+      <c r="DK34" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="DL34" s="6" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="DM34" s="6" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="DN34" s="6" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="DO34" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="DP34" s="15" t="s">
-        <v>170</v>
+        <v>288</v>
+      </c>
+      <c r="DP34" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="DQ34" s="15" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="DR34" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS34" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT34" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="DU34" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="DV34" s="15" t="s">
-        <v>219</v>
+        <v>244</v>
+      </c>
+      <c r="DS34" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="DT34" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU34" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="DV34" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="DW34" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="DX34" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="35" spans="1:132" s="5" customFormat="1" ht="51">
       <c r="A35" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>302</v>
+        <v>348</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>52</v>
@@ -9241,7 +9296,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>323</v>
@@ -9253,19 +9308,22 @@
         <v>14</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="T35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X35" s="14" t="s">
         <v>317</v>
@@ -9279,9 +9337,11 @@
       <c r="AA35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AB35" s="14"/>
+      <c r="AB35" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AC35" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD35" s="14" t="s">
         <v>3</v>
@@ -9306,18 +9366,9 @@
       <c r="AR35" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS35" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT35" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU35" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV35" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
       <c r="AW35" s="14" t="s">
         <v>314</v>
       </c>
@@ -9336,9 +9387,7 @@
       <c r="BB35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BC35" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="BC35" s="14"/>
       <c r="BD35" s="14" t="s">
         <v>70</v>
       </c>
@@ -9360,7 +9409,7 @@
         <v>3</v>
       </c>
       <c r="BL35" s="14" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="BM35" s="14" t="s">
         <v>124</v>
@@ -9372,18 +9421,20 @@
         <v>140</v>
       </c>
       <c r="BP35" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BR35" s="4"/>
-      <c r="BS35" s="4"/>
-      <c r="BT35" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="BU35" s="4"/>
-      <c r="BV35" s="4"/>
-      <c r="BW35" s="4" t="s">
-        <v>330</v>
-      </c>
+      <c r="BS35" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT35" s="4"/>
+      <c r="BU35" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BV35" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BW35" s="4"/>
       <c r="BX35" s="14" t="s">
         <v>3</v>
       </c>
@@ -9393,11 +9444,13 @@
         <v>3</v>
       </c>
       <c r="CC35" s="14"/>
-      <c r="CD35" s="4"/>
-      <c r="CE35" s="4"/>
-      <c r="CF35" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="CD35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF35" s="4"/>
       <c r="CG35" s="23" t="s">
         <v>52</v>
       </c>
@@ -9416,7 +9469,9 @@
       <c r="CL35" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="CM35" s="14"/>
+      <c r="CM35" s="14" t="s">
+        <v>314</v>
+      </c>
       <c r="CN35" s="5" t="s">
         <v>3</v>
       </c>
@@ -9429,34 +9484,107 @@
       <c r="CQ35" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CR35" s="5" t="s">
+      <c r="CR35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CS35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CT35" s="5" t="s">
+      <c r="CT35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CU35" s="4" t="s">
         <v>109</v>
       </c>
       <c r="CV35" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="CW35" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="CW35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX35" s="4"/>
       <c r="CY35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CZ35" s="23" t="s">
         <v>52</v>
       </c>
+      <c r="DA35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB35" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="DC35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DE35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DG35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DI35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ35" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DK35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="DL35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DM35" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="DN35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DO35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="DP35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DQ35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR35" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DS35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DT35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DV35" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="DW35" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="37" spans="1:128" s="9" customFormat="1">
+    <row r="36" spans="1:132">
+      <c r="A36" s="52"/>
+    </row>
+    <row r="37" spans="1:132" s="9" customFormat="1">
       <c r="A37" s="63" t="s">
-        <v>404</v>
+        <v>290</v>
       </c>
       <c r="B37" s="8"/>
       <c r="E37" s="8"/>
@@ -9526,7 +9654,7 @@
       <c r="CY37" s="8"/>
       <c r="CZ37" s="8"/>
     </row>
-    <row r="38" spans="1:128" s="11" customFormat="1" ht="38.25">
+    <row r="38" spans="1:132" s="11" customFormat="1" ht="38.25">
       <c r="A38" s="17" t="s">
         <v>2</v>
       </c>
@@ -9537,7 +9665,7 @@
         <v>57</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>7</v>
@@ -9579,7 +9707,7 @@
         <v>17</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S38" s="15" t="s">
         <v>58</v>
@@ -9804,12 +9932,12 @@
         <v>104</v>
       </c>
       <c r="CO38" s="17" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="CP38" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="CQ38" s="17" t="s">
+      <c r="CQ38" s="16" t="s">
         <v>113</v>
       </c>
       <c r="CR38" s="17" t="s">
@@ -9818,13 +9946,13 @@
       <c r="CS38" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CT38" s="17" t="s">
+      <c r="CT38" s="16" t="s">
         <v>223</v>
       </c>
       <c r="CU38" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="CV38" s="17" t="s">
+      <c r="CV38" s="16" t="s">
         <v>116</v>
       </c>
       <c r="CW38" s="17" t="s">
@@ -9836,7 +9964,7 @@
       <c r="CY38" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CZ38" s="18" t="s">
+      <c r="CZ38" s="6" t="s">
         <v>123</v>
       </c>
       <c r="DA38" s="15" t="s">
@@ -9846,84 +9974,84 @@
         <v>157</v>
       </c>
       <c r="DC38" s="15" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="DD38" s="16" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="DE38" s="15" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="DF38" s="15" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="DG38" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH38" s="6" t="s">
-        <v>163</v>
+        <v>237</v>
+      </c>
+      <c r="DH38" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="DI38" s="15" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="DJ38" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK38" s="6" t="s">
-        <v>166</v>
+        <v>239</v>
+      </c>
+      <c r="DK38" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="DL38" s="6" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="DM38" s="6" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="DN38" s="6" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="DO38" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="DP38" s="15" t="s">
-        <v>170</v>
+        <v>288</v>
+      </c>
+      <c r="DP38" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="DQ38" s="15" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="DR38" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS38" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT38" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="DU38" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="DV38" s="15" t="s">
-        <v>219</v>
+        <v>244</v>
+      </c>
+      <c r="DS38" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="DT38" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU38" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="DV38" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="DW38" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="DX38" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="39" spans="1:132" s="5" customFormat="1" ht="63.75">
       <c r="A39" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>302</v>
+        <v>277</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>54</v>
+        <v>417</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>52</v>
@@ -9938,7 +10066,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>323</v>
@@ -9950,19 +10078,19 @@
         <v>14</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X39" s="14" t="s">
         <v>317</v>
@@ -9978,7 +10106,7 @@
       </c>
       <c r="AB39" s="14"/>
       <c r="AC39" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD39" s="14" t="s">
         <v>3</v>
@@ -10003,18 +10131,9 @@
       <c r="AR39" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS39" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT39" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU39" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV39" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
       <c r="AW39" s="14" t="s">
         <v>314</v>
       </c>
@@ -10033,9 +10152,7 @@
       <c r="BB39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BC39" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="BC39" s="14"/>
       <c r="BD39" s="14" t="s">
         <v>70</v>
       </c>
@@ -10045,12 +10162,8 @@
       <c r="BF39" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="BG39" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="BH39" s="14" t="s">
-        <v>314</v>
-      </c>
+      <c r="BG39" s="14"/>
+      <c r="BH39" s="14"/>
       <c r="BI39" s="14" t="s">
         <v>3</v>
       </c>
@@ -10061,7 +10174,7 @@
         <v>3</v>
       </c>
       <c r="BL39" s="14" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="BM39" s="14" t="s">
         <v>124</v>
@@ -10073,18 +10186,20 @@
         <v>140</v>
       </c>
       <c r="BP39" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BR39" s="4"/>
-      <c r="BS39" s="4"/>
-      <c r="BT39" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="BU39" s="4"/>
-      <c r="BV39" s="4"/>
-      <c r="BW39" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="BS39" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT39" s="4"/>
+      <c r="BU39" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BV39" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BW39" s="4"/>
       <c r="BX39" s="14"/>
       <c r="BY39" s="4"/>
       <c r="CA39" s="4"/>
@@ -10092,37 +10207,141 @@
         <v>3</v>
       </c>
       <c r="CC39" s="14"/>
-      <c r="CD39" s="4"/>
-      <c r="CE39" s="4"/>
+      <c r="CD39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE39" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="CF39" s="4"/>
-      <c r="CG39" s="5" t="s">
-        <v>335</v>
+      <c r="CG39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="CH39" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ39" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="CK39" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="CQ39" s="4"/>
-      <c r="CS39" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="CL39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CM39" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ39" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CR39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS39" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="CT39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CU39" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV39" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="CV39" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="CW39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CX39" s="4" t="s">
+      <c r="CX39" s="4"/>
+      <c r="CY39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CZ39" s="23" t="s">
         <v>52</v>
       </c>
+      <c r="DA39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="DC39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DE39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DG39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DI39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ39" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DK39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="DL39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DM39" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="DN39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DQ39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR39" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DS39" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="DT39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU39" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="DV39" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="DW39" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="41" spans="1:128" s="9" customFormat="1">
-      <c r="A41" s="63" t="s">
-        <v>400</v>
+    <row r="41" spans="1:132" s="9" customFormat="1">
+      <c r="A41" s="43" t="s">
+        <v>295</v>
       </c>
       <c r="B41" s="8"/>
       <c r="E41" s="8"/>
@@ -10192,7 +10411,7 @@
       <c r="CY41" s="8"/>
       <c r="CZ41" s="8"/>
     </row>
-    <row r="42" spans="1:128" s="11" customFormat="1" ht="38.25">
+    <row r="42" spans="1:132" s="11" customFormat="1" ht="38.25">
       <c r="A42" s="17" t="s">
         <v>2</v>
       </c>
@@ -10203,7 +10422,7 @@
         <v>57</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>7</v>
@@ -10245,7 +10464,7 @@
         <v>17</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S42" s="15" t="s">
         <v>58</v>
@@ -10505,8 +10724,8 @@
       <c r="CZ42" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="DA42" s="15" t="s">
-        <v>156</v>
+      <c r="DA42" s="17" t="s">
+        <v>329</v>
       </c>
       <c r="DB42" s="6" t="s">
         <v>157</v>
@@ -10577,19 +10796,31 @@
       <c r="DX42" s="6" t="s">
         <v>259</v>
       </c>
+      <c r="DY42" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="DZ42" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="EA42" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="EB42" s="6" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="43" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="43" spans="1:132" s="5" customFormat="1" ht="51">
       <c r="A43" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>302</v>
+        <v>280</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>52</v>
@@ -10604,7 +10835,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>323</v>
@@ -10616,22 +10847,19 @@
         <v>14</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="T43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V43" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X43" s="14" t="s">
         <v>317</v>
@@ -10647,7 +10875,7 @@
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD43" s="14" t="s">
         <v>3</v>
@@ -10658,7 +10886,7 @@
       <c r="AF43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AG43" s="14" t="s">
+      <c r="AG43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AH43" s="5" t="s">
@@ -10672,18 +10900,9 @@
       <c r="AR43" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS43" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT43" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU43" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV43" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AU43" s="14"/>
       <c r="AW43" s="14" t="s">
         <v>314</v>
       </c>
@@ -10702,9 +10921,7 @@
       <c r="BB43" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BC43" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="BC43" s="14"/>
       <c r="BD43" s="14" t="s">
         <v>70</v>
       </c>
@@ -10714,12 +10931,8 @@
       <c r="BF43" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="BG43" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="BH43" s="14" t="s">
-        <v>314</v>
-      </c>
+      <c r="BG43" s="14"/>
+      <c r="BH43" s="14"/>
       <c r="BI43" s="14" t="s">
         <v>3</v>
       </c>
@@ -10730,7 +10943,7 @@
         <v>3</v>
       </c>
       <c r="BL43" s="14" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="BM43" s="14" t="s">
         <v>124</v>
@@ -10742,18 +10955,20 @@
         <v>140</v>
       </c>
       <c r="BP43" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BR43" s="4"/>
-      <c r="BS43" s="4"/>
-      <c r="BT43" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="BU43" s="4"/>
-      <c r="BV43" s="4"/>
-      <c r="BW43" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="BS43" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT43" s="4"/>
+      <c r="BU43" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BV43" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BW43" s="4"/>
       <c r="BX43" s="14"/>
       <c r="BY43" s="4"/>
       <c r="CA43" s="4"/>
@@ -10761,19 +10976,61 @@
         <v>3</v>
       </c>
       <c r="CC43" s="14"/>
-      <c r="CD43" s="4"/>
-      <c r="CE43" s="4"/>
+      <c r="CD43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE43" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="CF43" s="4"/>
-      <c r="CG43" s="4"/>
-      <c r="CQ43" s="4"/>
-      <c r="CS43" s="4"/>
+      <c r="CG43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="CH43" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="CK43" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="CL43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CM43" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ43" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CR43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS43" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="CT43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CU43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV43" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="CV43" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="CW43" s="4" t="s">
         <v>3</v>
       </c>
@@ -10784,80 +11041,28 @@
       <c r="CZ43" s="23" t="s">
         <v>52</v>
       </c>
+      <c r="DA43" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="DX43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DY43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="DZ43" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="EA43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB43" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="44" spans="1:128" s="5" customFormat="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="6"/>
-      <c r="AM44" s="14"/>
-      <c r="AO44" s="14"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-      <c r="AW44" s="14"/>
-      <c r="AX44" s="14"/>
-      <c r="AY44" s="14"/>
-      <c r="AZ44" s="14"/>
-      <c r="BA44" s="14"/>
-      <c r="BC44" s="14"/>
-      <c r="BD44" s="14"/>
-      <c r="BE44" s="14"/>
-      <c r="BF44" s="14"/>
-      <c r="BG44" s="14"/>
-      <c r="BH44" s="14"/>
-      <c r="BI44" s="14"/>
-      <c r="BJ44" s="14"/>
-      <c r="BK44" s="14"/>
-      <c r="BL44" s="14"/>
-      <c r="BM44" s="14"/>
-      <c r="BN44" s="14"/>
-      <c r="BO44" s="14"/>
-      <c r="BP44" s="14"/>
-      <c r="BR44" s="4"/>
-      <c r="BS44" s="4"/>
-      <c r="BT44" s="4"/>
-      <c r="BU44" s="4"/>
-      <c r="BV44" s="4"/>
-      <c r="BW44" s="4"/>
-      <c r="BX44" s="14"/>
-      <c r="CC44" s="14"/>
-      <c r="CD44" s="4"/>
-      <c r="CE44" s="4"/>
-      <c r="CF44" s="4"/>
-      <c r="CG44" s="23"/>
-      <c r="CH44" s="14"/>
-      <c r="CJ44" s="23"/>
-      <c r="CK44" s="14"/>
-      <c r="CL44" s="14"/>
-      <c r="CM44" s="14"/>
-      <c r="CP44" s="4"/>
-      <c r="CQ44" s="4"/>
-      <c r="CR44" s="4"/>
-      <c r="CS44" s="4"/>
-      <c r="CT44" s="4"/>
-      <c r="CU44" s="4"/>
-      <c r="CV44" s="4"/>
-      <c r="CW44" s="4"/>
-      <c r="CX44" s="4"/>
-      <c r="CY44" s="4"/>
-      <c r="CZ44" s="23"/>
-    </row>
-    <row r="45" spans="1:128" s="9" customFormat="1">
+    <row r="45" spans="1:132" s="9" customFormat="1">
       <c r="A45" s="43" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
@@ -10927,7 +11132,7 @@
       <c r="CY45" s="8"/>
       <c r="CZ45" s="8"/>
     </row>
-    <row r="46" spans="1:128" s="11" customFormat="1" ht="38.25">
+    <row r="46" spans="1:132" s="11" customFormat="1" ht="38.25">
       <c r="A46" s="17" t="s">
         <v>2</v>
       </c>
@@ -10938,7 +11143,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>7</v>
@@ -10980,7 +11185,7 @@
         <v>17</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S46" s="15" t="s">
         <v>58</v>
@@ -11210,7 +11415,7 @@
       <c r="CP46" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="CQ46" s="16" t="s">
+      <c r="CQ46" s="17" t="s">
         <v>113</v>
       </c>
       <c r="CR46" s="17" t="s">
@@ -11219,13 +11424,13 @@
       <c r="CS46" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CT46" s="16" t="s">
+      <c r="CT46" s="17" t="s">
         <v>223</v>
       </c>
       <c r="CU46" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="CV46" s="16" t="s">
+      <c r="CV46" s="17" t="s">
         <v>116</v>
       </c>
       <c r="CW46" s="17" t="s">
@@ -11237,7 +11442,7 @@
       <c r="CY46" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CZ46" s="6" t="s">
+      <c r="CZ46" s="18" t="s">
         <v>123</v>
       </c>
       <c r="DA46" s="15" t="s">
@@ -11313,18 +11518,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="47" spans="1:132" s="5" customFormat="1" ht="51">
       <c r="A47" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>16</v>
+        <v>343</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>388</v>
+        <v>54</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>52</v>
@@ -11339,7 +11544,7 @@
         <v>3</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>323</v>
@@ -11351,19 +11556,19 @@
         <v>14</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X47" s="14" t="s">
         <v>317</v>
@@ -11379,7 +11584,7 @@
       </c>
       <c r="AB47" s="14"/>
       <c r="AC47" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD47" s="14" t="s">
         <v>3</v>
@@ -11404,9 +11609,18 @@
       <c r="AR47" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS47" s="14"/>
-      <c r="AT47" s="14"/>
-      <c r="AU47" s="14"/>
+      <c r="AS47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT47" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU47" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV47" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="AW47" s="14" t="s">
         <v>314</v>
       </c>
@@ -11425,7 +11639,9 @@
       <c r="BB47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BC47" s="14"/>
+      <c r="BC47" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="BD47" s="14" t="s">
         <v>70</v>
       </c>
@@ -11447,7 +11663,7 @@
         <v>3</v>
       </c>
       <c r="BL47" s="14" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="BM47" s="14" t="s">
         <v>124</v>
@@ -11459,40 +11675,32 @@
         <v>140</v>
       </c>
       <c r="BP47" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ47" s="5" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="BR47" s="4"/>
-      <c r="BS47" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="BT47" s="4"/>
-      <c r="BU47" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BV47" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BW47" s="4"/>
-      <c r="BX47" s="14"/>
+      <c r="BS47" s="4"/>
+      <c r="BT47" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU47" s="4"/>
+      <c r="BV47" s="4"/>
+      <c r="BW47" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="BX47" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="BY47" s="4"/>
-      <c r="BZ47" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="CA47" s="4"/>
       <c r="CB47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CC47" s="14"/>
-      <c r="CD47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF47" s="4"/>
+      <c r="CD47" s="4"/>
+      <c r="CE47" s="4"/>
+      <c r="CF47" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="CG47" s="23" t="s">
         <v>52</v>
       </c>
@@ -11511,9 +11719,7 @@
       <c r="CL47" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="CM47" s="14" t="s">
-        <v>314</v>
-      </c>
+      <c r="CM47" s="14"/>
       <c r="CN47" s="5" t="s">
         <v>3</v>
       </c>
@@ -11526,13 +11732,13 @@
       <c r="CQ47" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CR47" s="4" t="s">
+      <c r="CR47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CS47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CT47" s="4" t="s">
+      <c r="CT47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CU47" s="4" t="s">
@@ -11541,10 +11747,9 @@
       <c r="CV47" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="CW47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX47" s="4"/>
+      <c r="CW47" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="CY47" s="4" t="s">
         <v>3</v>
       </c>
@@ -11552,81 +11757,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:128" s="5" customFormat="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="6"/>
-      <c r="AM48" s="14"/>
-      <c r="AO48" s="14"/>
-      <c r="AR48" s="14"/>
-      <c r="AS48" s="14"/>
-      <c r="AT48" s="14"/>
-      <c r="AU48" s="14"/>
-      <c r="AW48" s="14"/>
-      <c r="AX48" s="14"/>
-      <c r="AY48" s="14"/>
-      <c r="AZ48" s="14"/>
-      <c r="BA48" s="14"/>
-      <c r="BC48" s="14"/>
-      <c r="BD48" s="14"/>
-      <c r="BE48" s="14"/>
-      <c r="BF48" s="14"/>
-      <c r="BG48" s="14"/>
-      <c r="BH48" s="14"/>
-      <c r="BI48" s="14"/>
-      <c r="BJ48" s="14"/>
-      <c r="BK48" s="14"/>
-      <c r="BL48" s="14"/>
-      <c r="BM48" s="14"/>
-      <c r="BN48" s="14"/>
-      <c r="BO48" s="14"/>
-      <c r="BP48" s="14"/>
-      <c r="BR48" s="4"/>
-      <c r="BS48" s="4"/>
-      <c r="BT48" s="4"/>
-      <c r="BU48" s="4"/>
-      <c r="BV48" s="4"/>
-      <c r="BW48" s="4"/>
-      <c r="BX48" s="14"/>
-      <c r="BY48" s="4"/>
-      <c r="CA48" s="4"/>
-      <c r="CC48" s="14"/>
-      <c r="CD48" s="4"/>
-      <c r="CE48" s="4"/>
-      <c r="CF48" s="4"/>
-      <c r="CG48" s="23"/>
-      <c r="CH48" s="14"/>
-      <c r="CJ48" s="23"/>
-      <c r="CK48" s="14"/>
-      <c r="CL48" s="14"/>
-      <c r="CM48" s="14"/>
-      <c r="CP48" s="4"/>
-      <c r="CQ48" s="4"/>
-      <c r="CR48" s="4"/>
-      <c r="CS48" s="4"/>
-      <c r="CT48" s="4"/>
-      <c r="CU48" s="4"/>
-      <c r="CV48" s="4"/>
-      <c r="CW48" s="4"/>
-      <c r="CX48" s="4"/>
-      <c r="CY48" s="4"/>
-      <c r="CZ48" s="23"/>
-    </row>
     <row r="49" spans="1:128" s="9" customFormat="1">
-      <c r="A49" s="43" t="s">
-        <v>406</v>
+      <c r="A49" s="63" t="s">
+        <v>398</v>
       </c>
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
@@ -11749,7 +11882,7 @@
         <v>17</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S50" s="15" t="s">
         <v>58</v>
@@ -11979,7 +12112,7 @@
       <c r="CP50" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="CQ50" s="16" t="s">
+      <c r="CQ50" s="17" t="s">
         <v>113</v>
       </c>
       <c r="CR50" s="17" t="s">
@@ -11988,13 +12121,13 @@
       <c r="CS50" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CT50" s="16" t="s">
+      <c r="CT50" s="17" t="s">
         <v>223</v>
       </c>
       <c r="CU50" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="CV50" s="16" t="s">
+      <c r="CV50" s="17" t="s">
         <v>116</v>
       </c>
       <c r="CW50" s="17" t="s">
@@ -12006,7 +12139,7 @@
       <c r="CY50" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CZ50" s="6" t="s">
+      <c r="CZ50" s="18" t="s">
         <v>123</v>
       </c>
       <c r="DA50" s="15" t="s">
@@ -12087,10 +12220,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>16</v>
+        <v>364</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>54</v>
@@ -12108,7 +12241,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>323</v>
@@ -12120,19 +12253,22 @@
         <v>14</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U51" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V51" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X51" s="14" t="s">
         <v>317</v>
@@ -12148,7 +12284,7 @@
       </c>
       <c r="AB51" s="14"/>
       <c r="AC51" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD51" s="14" t="s">
         <v>3</v>
@@ -12159,7 +12295,7 @@
       <c r="AF51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AG51" s="5" t="s">
+      <c r="AG51" s="14" t="s">
         <v>3</v>
       </c>
       <c r="AH51" s="5" t="s">
@@ -12173,9 +12309,18 @@
       <c r="AR51" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS51" s="14"/>
-      <c r="AT51" s="14"/>
-      <c r="AU51" s="14"/>
+      <c r="AS51" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU51" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV51" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="AW51" s="14" t="s">
         <v>314</v>
       </c>
@@ -12194,7 +12339,9 @@
       <c r="BB51" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BC51" s="14"/>
+      <c r="BC51" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="BD51" s="14" t="s">
         <v>70</v>
       </c>
@@ -12204,8 +12351,12 @@
       <c r="BF51" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="BG51" s="14"/>
-      <c r="BH51" s="14"/>
+      <c r="BG51" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="BH51" s="14" t="s">
+        <v>314</v>
+      </c>
       <c r="BI51" s="14" t="s">
         <v>3</v>
       </c>
@@ -12216,7 +12367,7 @@
         <v>3</v>
       </c>
       <c r="BL51" s="14" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="BM51" s="14" t="s">
         <v>124</v>
@@ -12228,89 +12379,38 @@
         <v>140</v>
       </c>
       <c r="BP51" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR51" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="BS51" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="BT51" s="4"/>
-      <c r="BU51" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BV51" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BW51" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="BR51" s="4"/>
+      <c r="BS51" s="4"/>
+      <c r="BT51" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU51" s="4"/>
+      <c r="BV51" s="4"/>
+      <c r="BW51" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="BX51" s="14"/>
       <c r="BY51" s="4"/>
-      <c r="BZ51" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="CA51" s="4"/>
       <c r="CB51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="CC51" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD51" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE51" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="CC51" s="14"/>
+      <c r="CD51" s="4"/>
+      <c r="CE51" s="4"/>
       <c r="CF51" s="4"/>
-      <c r="CG51" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="CH51" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI51" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="CJ51" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="CK51" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="CL51" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="CM51" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="CN51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CO51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CQ51" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="CR51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CS51" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="CG51" s="4"/>
+      <c r="CQ51" s="4"/>
+      <c r="CS51" s="4"/>
       <c r="CT51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CU51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CV51" s="4" t="s">
-        <v>333</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="CV51" s="4"/>
       <c r="CW51" s="4" t="s">
         <v>3</v>
       </c>
@@ -12321,10 +12421,80 @@
       <c r="CZ51" s="23" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="52" spans="1:128" s="5" customFormat="1">
+      <c r="A52" s="12"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="6"/>
+      <c r="AM52" s="14"/>
+      <c r="AO52" s="14"/>
+      <c r="AR52" s="14"/>
+      <c r="AS52" s="14"/>
+      <c r="AT52" s="14"/>
+      <c r="AU52" s="14"/>
+      <c r="AW52" s="14"/>
+      <c r="AX52" s="14"/>
+      <c r="AY52" s="14"/>
+      <c r="AZ52" s="14"/>
+      <c r="BA52" s="14"/>
+      <c r="BC52" s="14"/>
+      <c r="BD52" s="14"/>
+      <c r="BE52" s="14"/>
+      <c r="BF52" s="14"/>
+      <c r="BG52" s="14"/>
+      <c r="BH52" s="14"/>
+      <c r="BI52" s="14"/>
+      <c r="BJ52" s="14"/>
+      <c r="BK52" s="14"/>
+      <c r="BL52" s="14"/>
+      <c r="BM52" s="14"/>
+      <c r="BN52" s="14"/>
+      <c r="BO52" s="14"/>
+      <c r="BP52" s="14"/>
+      <c r="BR52" s="4"/>
+      <c r="BS52" s="4"/>
+      <c r="BT52" s="4"/>
+      <c r="BU52" s="4"/>
+      <c r="BV52" s="4"/>
+      <c r="BW52" s="4"/>
+      <c r="BX52" s="14"/>
+      <c r="CC52" s="14"/>
+      <c r="CD52" s="4"/>
+      <c r="CE52" s="4"/>
+      <c r="CF52" s="4"/>
+      <c r="CG52" s="23"/>
+      <c r="CH52" s="14"/>
+      <c r="CJ52" s="23"/>
+      <c r="CK52" s="14"/>
+      <c r="CL52" s="14"/>
+      <c r="CM52" s="14"/>
+      <c r="CP52" s="4"/>
+      <c r="CQ52" s="4"/>
+      <c r="CR52" s="4"/>
+      <c r="CS52" s="4"/>
+      <c r="CT52" s="4"/>
+      <c r="CU52" s="4"/>
+      <c r="CV52" s="4"/>
+      <c r="CW52" s="4"/>
+      <c r="CX52" s="4"/>
+      <c r="CY52" s="4"/>
+      <c r="CZ52" s="23"/>
     </row>
     <row r="53" spans="1:128" s="9" customFormat="1">
       <c r="A53" s="63" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
@@ -12447,7 +12617,7 @@
         <v>17</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S54" s="15" t="s">
         <v>58</v>
@@ -12785,7 +12955,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>16</v>
@@ -12806,7 +12976,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>323</v>
@@ -12818,19 +12988,19 @@
         <v>14</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U55" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V55" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X55" s="14" t="s">
         <v>317</v>
@@ -12846,7 +13016,7 @@
       </c>
       <c r="AB55" s="14"/>
       <c r="AC55" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD55" s="14" t="s">
         <v>3</v>
@@ -13087,7 +13257,7 @@
     </row>
     <row r="57" spans="1:128" s="9" customFormat="1">
       <c r="A57" s="43" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
@@ -13210,7 +13380,7 @@
         <v>17</v>
       </c>
       <c r="R58" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S58" s="15" t="s">
         <v>58</v>
@@ -13440,7 +13610,7 @@
       <c r="CP58" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="CQ58" s="16" t="s">
+      <c r="CQ58" s="17" t="s">
         <v>113</v>
       </c>
       <c r="CR58" s="17" t="s">
@@ -13449,13 +13619,13 @@
       <c r="CS58" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CT58" s="16" t="s">
+      <c r="CT58" s="17" t="s">
         <v>223</v>
       </c>
       <c r="CU58" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="CV58" s="16" t="s">
+      <c r="CV58" s="17" t="s">
         <v>116</v>
       </c>
       <c r="CW58" s="17" t="s">
@@ -13467,7 +13637,7 @@
       <c r="CY58" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CZ58" s="6" t="s">
+      <c r="CZ58" s="18" t="s">
         <v>123</v>
       </c>
       <c r="DA58" s="15" t="s">
@@ -13548,10 +13718,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>16</v>
+        <v>386</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>54</v>
@@ -13569,7 +13739,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>323</v>
@@ -13581,19 +13751,19 @@
         <v>14</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X59" s="14" t="s">
         <v>317</v>
@@ -13609,7 +13779,7 @@
       </c>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD59" s="14" t="s">
         <v>3</v>
@@ -13626,39 +13796,23 @@
       <c r="AH59" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AI59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM59" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM59" s="14"/>
       <c r="AN59" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AO59" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ59" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="AO59" s="14"/>
       <c r="AR59" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS59" s="14"/>
-      <c r="AT59" s="14"/>
-      <c r="AU59" s="14"/>
+      <c r="AS59" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT59" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU59" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="AV59" s="5" t="s">
         <v>71</v>
       </c>
@@ -13677,8 +13831,8 @@
       <c r="BA59" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="BB59" s="5" t="s">
-        <v>3</v>
+      <c r="BB59" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="BC59" s="14" t="s">
         <v>45</v>
@@ -13704,7 +13858,7 @@
         <v>3</v>
       </c>
       <c r="BL59" s="14" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="BM59" s="14" t="s">
         <v>124</v>
@@ -13716,34 +13870,32 @@
         <v>140</v>
       </c>
       <c r="BP59" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BR59" s="4"/>
-      <c r="BS59" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="BT59" s="4"/>
-      <c r="BU59" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BV59" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BW59" s="4"/>
-      <c r="BX59" s="14"/>
+      <c r="BS59" s="4"/>
+      <c r="BT59" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU59" s="4"/>
+      <c r="BV59" s="4"/>
+      <c r="BW59" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="BX59" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="BY59" s="4"/>
       <c r="CA59" s="4"/>
       <c r="CB59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CC59" s="14"/>
-      <c r="CD59" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE59" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF59" s="4"/>
+      <c r="CD59" s="4"/>
+      <c r="CE59" s="4"/>
+      <c r="CF59" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="CG59" s="23" t="s">
         <v>52</v>
       </c>
@@ -13762,9 +13914,7 @@
       <c r="CL59" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="CM59" s="14" t="s">
-        <v>314</v>
-      </c>
+      <c r="CM59" s="14"/>
       <c r="CN59" s="5" t="s">
         <v>3</v>
       </c>
@@ -13777,107 +13927,35 @@
       <c r="CQ59" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CR59" s="4" t="s">
+      <c r="CR59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CS59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CT59" s="4" t="s">
+      <c r="CT59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CU59" s="4" t="s">
         <v>109</v>
       </c>
       <c r="CV59" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="CW59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX59" s="4"/>
-      <c r="CY59" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="CW59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CY59" s="4"/>
       <c r="CZ59" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:128" s="5" customFormat="1">
-      <c r="A60" s="48"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="14"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="14"/>
-      <c r="AE60" s="6"/>
-      <c r="AM60" s="14"/>
-      <c r="AO60" s="14"/>
-      <c r="AR60" s="14"/>
-      <c r="AS60" s="14"/>
-      <c r="AT60" s="14"/>
-      <c r="AU60" s="14"/>
-      <c r="AW60" s="14"/>
-      <c r="AX60" s="14"/>
-      <c r="AY60" s="14"/>
-      <c r="AZ60" s="14"/>
-      <c r="BA60" s="14"/>
-      <c r="BC60" s="14"/>
-      <c r="BD60" s="14"/>
-      <c r="BE60" s="14"/>
-      <c r="BF60" s="14"/>
-      <c r="BG60" s="14"/>
-      <c r="BH60" s="14"/>
-      <c r="BI60" s="14"/>
-      <c r="BJ60" s="14"/>
-      <c r="BK60" s="14"/>
-      <c r="BL60" s="14"/>
-      <c r="BM60" s="14"/>
-      <c r="BN60" s="14"/>
-      <c r="BO60" s="14"/>
-      <c r="BP60" s="14"/>
-      <c r="BR60" s="4"/>
-      <c r="BS60" s="4"/>
-      <c r="BT60" s="4"/>
-      <c r="BU60" s="4"/>
-      <c r="BV60" s="4"/>
-      <c r="BW60" s="4"/>
-      <c r="BX60" s="14"/>
-      <c r="BY60" s="4"/>
-      <c r="CA60" s="4"/>
-      <c r="CC60" s="14"/>
-      <c r="CD60" s="4"/>
-      <c r="CE60" s="4"/>
-      <c r="CF60" s="4"/>
-      <c r="CG60" s="23"/>
-      <c r="CH60" s="14"/>
-      <c r="CJ60" s="23"/>
-      <c r="CK60" s="14"/>
-      <c r="CL60" s="14"/>
-      <c r="CM60" s="14"/>
-      <c r="CP60" s="4"/>
-      <c r="CQ60" s="4"/>
-      <c r="CR60" s="4"/>
-      <c r="CS60" s="4"/>
-      <c r="CT60" s="4"/>
-      <c r="CU60" s="4"/>
-      <c r="CV60" s="4"/>
-      <c r="CW60" s="4"/>
-      <c r="CX60" s="4"/>
-      <c r="CY60" s="4"/>
-      <c r="CZ60" s="23"/>
     </row>
     <row r="61" spans="1:128" s="9" customFormat="1">
       <c r="A61" s="63" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
@@ -13958,7 +14036,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>7</v>
@@ -14000,7 +14078,7 @@
         <v>17</v>
       </c>
       <c r="R62" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S62" s="15" t="s">
         <v>58</v>
@@ -14081,7 +14159,7 @@
         <v>63</v>
       </c>
       <c r="AS62" s="6" t="s">
-        <v>383</v>
+        <v>38</v>
       </c>
       <c r="AT62" s="6" t="s">
         <v>65</v>
@@ -14230,7 +14308,7 @@
       <c r="CP62" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="CQ62" s="16" t="s">
+      <c r="CQ62" s="17" t="s">
         <v>113</v>
       </c>
       <c r="CR62" s="17" t="s">
@@ -14239,13 +14317,13 @@
       <c r="CS62" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CT62" s="16" t="s">
+      <c r="CT62" s="17" t="s">
         <v>223</v>
       </c>
       <c r="CU62" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="CV62" s="16" t="s">
+      <c r="CV62" s="17" t="s">
         <v>116</v>
       </c>
       <c r="CW62" s="17" t="s">
@@ -14257,7 +14335,7 @@
       <c r="CY62" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CZ62" s="6" t="s">
+      <c r="CZ62" s="18" t="s">
         <v>123</v>
       </c>
       <c r="DA62" s="15" t="s">
@@ -14267,67 +14345,67 @@
         <v>157</v>
       </c>
       <c r="DC62" s="15" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="DD62" s="16" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="DE62" s="15" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="DF62" s="15" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="DG62" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="DH62" s="15" t="s">
-        <v>238</v>
+        <v>162</v>
+      </c>
+      <c r="DH62" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="DI62" s="15" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="DJ62" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="DK62" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK62" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DL62" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM62" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="DN62" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO62" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="DP62" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="DQ62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR62" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS62" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="DL62" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="DM62" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="DN62" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="DO62" s="6" t="s">
+      <c r="DT62" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="DP62" s="6" t="s">
+      <c r="DU62" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="DQ62" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="DR62" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="DS62" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="DT62" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU62" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="DV62" s="6" t="s">
-        <v>246</v>
+      <c r="DV62" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="DW62" s="6" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="DX62" s="6" t="s">
         <v>259</v>
@@ -14338,13 +14416,13 @@
         <v>3</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>16</v>
+        <v>385</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>391</v>
+        <v>54</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>52</v>
@@ -14359,7 +14437,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="O63" s="5" t="s">
         <v>323</v>
@@ -14371,19 +14449,19 @@
         <v>14</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U63" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X63" s="14" t="s">
         <v>317</v>
@@ -14399,7 +14477,7 @@
       </c>
       <c r="AB63" s="14"/>
       <c r="AC63" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD63" s="14" t="s">
         <v>3</v>
@@ -14425,10 +14503,17 @@
         <v>310</v>
       </c>
       <c r="AS63" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT63" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AT63" s="14"/>
-      <c r="AU63" s="14"/>
+      <c r="AU63" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV63" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="AW63" s="14" t="s">
         <v>314</v>
       </c>
@@ -14447,7 +14532,9 @@
       <c r="BB63" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BC63" s="14"/>
+      <c r="BC63" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="BD63" s="14" t="s">
         <v>70</v>
       </c>
@@ -14457,8 +14544,12 @@
       <c r="BF63" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="BG63" s="14"/>
-      <c r="BH63" s="14"/>
+      <c r="BG63" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="BH63" s="14" t="s">
+        <v>314</v>
+      </c>
       <c r="BI63" s="14" t="s">
         <v>3</v>
       </c>
@@ -14469,7 +14560,7 @@
         <v>3</v>
       </c>
       <c r="BL63" s="14" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="BM63" s="14" t="s">
         <v>124</v>
@@ -14481,167 +14572,56 @@
         <v>140</v>
       </c>
       <c r="BP63" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BR63" s="4"/>
-      <c r="BS63" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="BT63" s="4"/>
-      <c r="BU63" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BV63" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BW63" s="4"/>
-      <c r="BX63" s="14" t="s">
-        <v>3</v>
-      </c>
+      <c r="BS63" s="4"/>
+      <c r="BT63" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU63" s="4"/>
+      <c r="BV63" s="4"/>
+      <c r="BW63" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX63" s="14"/>
       <c r="BY63" s="4"/>
       <c r="CA63" s="4"/>
       <c r="CB63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="CC63" s="14"/>
-      <c r="CD63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE63" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="CD63" s="4"/>
+      <c r="CE63" s="4"/>
       <c r="CF63" s="4"/>
-      <c r="CG63" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="CH63" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI63" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="CJ63" s="23" t="s">
-        <v>52</v>
+      <c r="CG63" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="CK63" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="CL63" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="CM63" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="CN63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CO63" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP63" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CQ63" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="CR63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CS63" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="CQ63" s="4"/>
+      <c r="CS63" s="4"/>
       <c r="CT63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CU63" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CV63" s="4" t="s">
-        <v>333</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="CV63" s="4"/>
       <c r="CW63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CX63" s="4"/>
-      <c r="CY63" s="4" t="s">
+      <c r="CX63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="CZ63" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="DA63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="DB63" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="DC63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DD63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DF63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DG63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DH63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DI63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ63" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="DK63" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="DL63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="DM63" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="DN63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DP63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DQ63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DR63" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="DS63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DT63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DU63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="DV63" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="DW63" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:128">
-      <c r="A64" s="52"/>
     </row>
     <row r="65" spans="1:128" s="9" customFormat="1">
-      <c r="A65" s="63" t="s">
-        <v>350</v>
+      <c r="A65" s="43" t="s">
+        <v>399</v>
       </c>
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
@@ -14722,7 +14702,7 @@
         <v>57</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>7</v>
@@ -14764,7 +14744,7 @@
         <v>17</v>
       </c>
       <c r="R66" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S66" s="15" t="s">
         <v>58</v>
@@ -15031,67 +15011,67 @@
         <v>157</v>
       </c>
       <c r="DC66" s="15" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="DD66" s="16" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="DE66" s="15" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="DF66" s="15" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="DG66" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="DH66" s="15" t="s">
-        <v>238</v>
+        <v>162</v>
+      </c>
+      <c r="DH66" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="DI66" s="15" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="DJ66" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="DK66" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DL66" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM66" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="DN66" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO66" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="DP66" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="DQ66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR66" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS66" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="DL66" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="DM66" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="DN66" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="DO66" s="6" t="s">
+      <c r="DT66" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="DP66" s="6" t="s">
+      <c r="DU66" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="DQ66" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="DR66" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="DS66" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="DT66" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU66" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="DV66" s="6" t="s">
-        <v>246</v>
+      <c r="DV66" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="DW66" s="6" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="DX66" s="6" t="s">
         <v>259</v>
@@ -15102,13 +15082,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>392</v>
+        <v>54</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>52</v>
@@ -15123,7 +15103,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>323</v>
@@ -15135,22 +15115,19 @@
         <v>14</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U67" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X67" s="14" t="s">
         <v>317</v>
@@ -15164,11 +15141,9 @@
       <c r="AA67" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AB67" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB67" s="14"/>
       <c r="AC67" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD67" s="14" t="s">
         <v>3</v>
@@ -15185,17 +15160,42 @@
       <c r="AH67" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AM67" s="14"/>
+      <c r="AI67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM67" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AN67" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AO67" s="14"/>
+      <c r="AO67" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ67" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="AR67" s="5" t="s">
         <v>310</v>
       </c>
       <c r="AS67" s="14"/>
       <c r="AT67" s="14"/>
       <c r="AU67" s="14"/>
+      <c r="AV67" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="AW67" s="14" t="s">
         <v>314</v>
       </c>
@@ -15211,10 +15211,12 @@
       <c r="BA67" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="BB67" s="14" t="s">
+      <c r="BB67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC67" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BC67" s="14"/>
       <c r="BD67" s="14" t="s">
         <v>70</v>
       </c>
@@ -15262,9 +15264,7 @@
         <v>321</v>
       </c>
       <c r="BW67" s="4"/>
-      <c r="BX67" s="14" t="s">
-        <v>3</v>
-      </c>
+      <c r="BX67" s="14"/>
       <c r="BY67" s="4"/>
       <c r="CA67" s="4"/>
       <c r="CB67" s="5" t="s">
@@ -15324,7 +15324,7 @@
         <v>109</v>
       </c>
       <c r="CV67" s="4" t="s">
-        <v>97</v>
+        <v>333</v>
       </c>
       <c r="CW67" s="4" t="s">
         <v>3</v>
@@ -15336,78 +15336,78 @@
       <c r="CZ67" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="DA67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="DB67" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="DC67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DD67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DF67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DG67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DH67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DI67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ67" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="DK67" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="DL67" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="DM67" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="DN67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DO67" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="DP67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DQ67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DR67" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="DS67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DT67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DU67" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="DV67" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="DW67" s="5" t="s">
-        <v>248</v>
-      </c>
     </row>
-    <row r="68" spans="1:128">
-      <c r="A68" s="52"/>
+    <row r="68" spans="1:128" s="5" customFormat="1">
+      <c r="A68" s="48"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="6"/>
+      <c r="AM68" s="14"/>
+      <c r="AO68" s="14"/>
+      <c r="AR68" s="14"/>
+      <c r="AS68" s="14"/>
+      <c r="AT68" s="14"/>
+      <c r="AU68" s="14"/>
+      <c r="AW68" s="14"/>
+      <c r="AX68" s="14"/>
+      <c r="AY68" s="14"/>
+      <c r="AZ68" s="14"/>
+      <c r="BA68" s="14"/>
+      <c r="BC68" s="14"/>
+      <c r="BD68" s="14"/>
+      <c r="BE68" s="14"/>
+      <c r="BF68" s="14"/>
+      <c r="BG68" s="14"/>
+      <c r="BH68" s="14"/>
+      <c r="BI68" s="14"/>
+      <c r="BJ68" s="14"/>
+      <c r="BK68" s="14"/>
+      <c r="BL68" s="14"/>
+      <c r="BM68" s="14"/>
+      <c r="BN68" s="14"/>
+      <c r="BO68" s="14"/>
+      <c r="BP68" s="14"/>
+      <c r="BR68" s="4"/>
+      <c r="BS68" s="4"/>
+      <c r="BT68" s="4"/>
+      <c r="BU68" s="4"/>
+      <c r="BV68" s="4"/>
+      <c r="BW68" s="4"/>
+      <c r="BX68" s="14"/>
+      <c r="BY68" s="4"/>
+      <c r="CA68" s="4"/>
+      <c r="CC68" s="14"/>
+      <c r="CD68" s="4"/>
+      <c r="CE68" s="4"/>
+      <c r="CF68" s="4"/>
+      <c r="CG68" s="23"/>
+      <c r="CH68" s="14"/>
+      <c r="CJ68" s="23"/>
+      <c r="CK68" s="14"/>
+      <c r="CL68" s="14"/>
+      <c r="CM68" s="14"/>
+      <c r="CP68" s="4"/>
+      <c r="CQ68" s="4"/>
+      <c r="CR68" s="4"/>
+      <c r="CS68" s="4"/>
+      <c r="CT68" s="4"/>
+      <c r="CU68" s="4"/>
+      <c r="CV68" s="4"/>
+      <c r="CW68" s="4"/>
+      <c r="CX68" s="4"/>
+      <c r="CY68" s="4"/>
+      <c r="CZ68" s="23"/>
     </row>
     <row r="69" spans="1:128" s="9" customFormat="1">
       <c r="A69" s="63" t="s">
@@ -16532,7 +16532,7 @@
     </row>
     <row r="77" spans="1:128" s="9" customFormat="1">
       <c r="A77" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
@@ -17091,7 +17091,7 @@
     </row>
     <row r="81" spans="1:128" s="9" customFormat="1">
       <c r="A81" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
@@ -17565,7 +17565,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="W83" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X83" s="14"/>
       <c r="Z83" s="14"/>
@@ -17779,7 +17779,7 @@
         <v>17</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S86" s="15" t="s">
         <v>58</v>
@@ -18138,7 +18138,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O87" s="5" t="s">
         <v>323</v>
@@ -18150,19 +18150,19 @@
         <v>14</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U87" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W87" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X87" s="14" t="s">
         <v>317</v>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="AB87" s="14"/>
       <c r="AC87" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD87" s="14" t="s">
         <v>3</v>
@@ -18563,7 +18563,7 @@
         <v>17</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S90" s="15" t="s">
         <v>58</v>
@@ -18922,7 +18922,7 @@
         <v>3</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O91" s="5" t="s">
         <v>323</v>
@@ -18934,19 +18934,19 @@
         <v>14</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V91" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W91" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X91" s="14" t="s">
         <v>317</v>
@@ -18962,7 +18962,7 @@
       </c>
       <c r="AB91" s="14"/>
       <c r="AC91" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD91" s="14" t="s">
         <v>3</v>
@@ -19555,7 +19555,7 @@
         <v>17</v>
       </c>
       <c r="R96" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S96" s="15" t="s">
         <v>58</v>
@@ -19828,7 +19828,7 @@
         <v>16</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E97" s="41" t="s">
         <v>53</v>
@@ -19843,7 +19843,7 @@
         <v>3</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>117</v>
@@ -19861,13 +19861,13 @@
         <v>5</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>124</v>
       </c>
       <c r="U97" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V97" s="5" t="s">
         <v>318</v>
@@ -19889,7 +19889,7 @@
         <v>59</v>
       </c>
       <c r="AC97" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD97" s="14" t="s">
         <v>3</v>
@@ -20144,7 +20144,7 @@
         <v>17</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S100" s="15" t="s">
         <v>58</v>
@@ -20503,10 +20503,10 @@
         <v>3</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S101" s="5" t="s">
         <v>124</v>
@@ -20531,7 +20531,7 @@
         <v>59</v>
       </c>
       <c r="AC101" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD101" s="14" t="s">
         <v>3</v>
@@ -20799,7 +20799,7 @@
         <v>17</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S104" s="15" t="s">
         <v>58</v>
@@ -21108,10 +21108,10 @@
         <v>3</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>124</v>
@@ -21136,7 +21136,7 @@
         <v>59</v>
       </c>
       <c r="AC105" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD105" s="14" t="s">
         <v>3</v>
@@ -21405,7 +21405,7 @@
         <v>17</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S108" s="15" t="s">
         <v>58</v>
@@ -21764,7 +21764,7 @@
         <v>3</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O109" s="5" t="s">
         <v>323</v>
@@ -21776,7 +21776,7 @@
         <v>14</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S109" s="5" t="s">
         <v>124</v>
@@ -21785,7 +21785,7 @@
         <v>3</v>
       </c>
       <c r="U109" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V109" s="5" t="s">
         <v>318</v>
@@ -21809,7 +21809,7 @@
         <v>59</v>
       </c>
       <c r="AC109" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD109" s="14" t="s">
         <v>3</v>
@@ -22185,7 +22185,7 @@
         <v>17</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S112" s="15" t="s">
         <v>58</v>
@@ -22544,7 +22544,7 @@
         <v>3</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O113" s="5" t="s">
         <v>323</v>
@@ -22556,7 +22556,7 @@
         <v>14</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S113" s="5" t="s">
         <v>124</v>
@@ -22565,7 +22565,7 @@
         <v>3</v>
       </c>
       <c r="U113" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V113" s="5" t="s">
         <v>318</v>
@@ -22589,7 +22589,7 @@
         <v>59</v>
       </c>
       <c r="AC113" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD113" s="14" t="s">
         <v>3</v>
@@ -22965,7 +22965,7 @@
         <v>17</v>
       </c>
       <c r="R116" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S116" s="15" t="s">
         <v>58</v>
@@ -23324,7 +23324,7 @@
         <v>3</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O117" s="5" t="s">
         <v>323</v>
@@ -23336,7 +23336,7 @@
         <v>14</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>124</v>
@@ -23345,7 +23345,7 @@
         <v>3</v>
       </c>
       <c r="U117" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V117" s="5" t="s">
         <v>318</v>
@@ -23369,7 +23369,7 @@
         <v>59</v>
       </c>
       <c r="AC117" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD117" s="14" t="s">
         <v>3</v>
@@ -23745,7 +23745,7 @@
         <v>17</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S120" s="15" t="s">
         <v>58</v>
@@ -24104,7 +24104,7 @@
         <v>3</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>117</v>
@@ -24122,7 +24122,7 @@
         <v>5</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S121" s="5" t="s">
         <v>124</v>
@@ -24147,7 +24147,7 @@
         <v>59</v>
       </c>
       <c r="AC121" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD121" s="14" t="s">
         <v>3</v>
@@ -24355,7 +24355,7 @@
     </row>
     <row r="123" spans="1:128" s="9" customFormat="1">
       <c r="A123" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B123" s="8"/>
       <c r="E123" s="8"/>
@@ -24478,7 +24478,7 @@
         <v>17</v>
       </c>
       <c r="R124" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S124" s="15" t="s">
         <v>58</v>
@@ -24837,10 +24837,10 @@
         <v>3</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S125" s="5" t="s">
         <v>124</v>
@@ -24865,7 +24865,7 @@
         <v>59</v>
       </c>
       <c r="AC125" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD125" s="14" t="s">
         <v>3</v>
@@ -25003,7 +25003,7 @@
     </row>
     <row r="127" spans="1:128" s="9" customFormat="1">
       <c r="A127" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B127" s="8"/>
       <c r="E127" s="8"/>
@@ -25126,7 +25126,7 @@
         <v>17</v>
       </c>
       <c r="R128" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S128" s="15" t="s">
         <v>58</v>
@@ -25485,10 +25485,10 @@
         <v>3</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S129" s="5" t="s">
         <v>124</v>
@@ -25513,7 +25513,7 @@
         <v>59</v>
       </c>
       <c r="AC129" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD129" s="14" t="s">
         <v>3</v>
@@ -25543,7 +25543,7 @@
       <c r="BE129" s="14"/>
       <c r="BF129" s="14"/>
       <c r="BG129" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="BH129" s="14" t="s">
         <v>314</v>
@@ -25630,7 +25630,7 @@
     </row>
     <row r="131" spans="1:128" s="9" customFormat="1">
       <c r="A131" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B131" s="8"/>
       <c r="E131" s="8"/>
@@ -25753,7 +25753,7 @@
         <v>17</v>
       </c>
       <c r="R132" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S132" s="15" t="s">
         <v>58</v>
@@ -26112,10 +26112,10 @@
         <v>3</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R133" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S133" s="5" t="s">
         <v>124</v>
@@ -26140,7 +26140,7 @@
         <v>59</v>
       </c>
       <c r="AC133" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD133" s="14" t="s">
         <v>3</v>
@@ -26276,7 +26276,7 @@
     </row>
     <row r="135" spans="1:128" s="9" customFormat="1">
       <c r="A135" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B135" s="8"/>
       <c r="E135" s="8"/>
@@ -26399,7 +26399,7 @@
         <v>17</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S136" s="15" t="s">
         <v>58</v>
@@ -26758,10 +26758,10 @@
         <v>3</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R137" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>124</v>
@@ -26786,7 +26786,7 @@
         <v>59</v>
       </c>
       <c r="AC137" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD137" s="14" t="s">
         <v>3</v>
@@ -26816,7 +26816,7 @@
       <c r="BE137" s="14"/>
       <c r="BF137" s="14"/>
       <c r="BG137" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="BH137" s="14" t="s">
         <v>314</v>
@@ -26902,7 +26902,7 @@
     </row>
     <row r="139" spans="1:128" s="9" customFormat="1">
       <c r="A139" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B139" s="8"/>
       <c r="E139" s="8"/>
@@ -27025,7 +27025,7 @@
         <v>17</v>
       </c>
       <c r="R140" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S140" s="15" t="s">
         <v>58</v>
@@ -27384,10 +27384,10 @@
         <v>3</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R141" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S141" s="5" t="s">
         <v>124</v>
@@ -27412,7 +27412,7 @@
         <v>59</v>
       </c>
       <c r="AC141" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD141" s="14" t="s">
         <v>3</v>
@@ -27548,7 +27548,7 @@
     </row>
     <row r="143" spans="1:128" s="9" customFormat="1">
       <c r="A143" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B143" s="8"/>
       <c r="E143" s="8"/>
@@ -27671,7 +27671,7 @@
         <v>17</v>
       </c>
       <c r="R144" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S144" s="15" t="s">
         <v>58</v>
@@ -28033,7 +28033,7 @@
         <v>311</v>
       </c>
       <c r="R145" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>124</v>
@@ -28058,7 +28058,7 @@
         <v>59</v>
       </c>
       <c r="AC145" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD145" s="14" t="s">
         <v>3</v>
@@ -30950,7 +30950,7 @@
     </row>
     <row r="188" spans="1:128" s="9" customFormat="1">
       <c r="A188" s="43" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B188" s="8"/>
       <c r="E188" s="8"/>
@@ -33114,7 +33114,7 @@
     </row>
     <row r="201" spans="1:128" s="9" customFormat="1">
       <c r="A201" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B201" s="8"/>
       <c r="E201" s="8"/>
